--- a/Test/test_topdown_hits_calibration.xlsx
+++ b/Test/test_topdown_hits_calibration.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +751,7 @@
         <v>5.1279726852345795E-32</v>
       </c>
       <c r="W3">
-        <v>9.9999999999999901E+307</v>
+        <v>500</v>
       </c>
       <c r="X3">
         <v>0.42105263157894701</v>
